--- a/1_excel/sample_chart.xlsx
+++ b/1_excel/sample_chart.xlsx
@@ -611,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -622,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -633,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -655,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -666,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -688,10 +688,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -699,10 +699,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -710,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
